--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_60.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,80 +488,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'Bb:maj']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07146908678389109</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(60.86, 67.913), (63.251, 70.247)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(68.8, 76.2), (14.9, 20.36)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:02.530000', '0:01:06.230000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>isophonics_132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>schubert-winterreise_55</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.05716783216783217</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['B', 'B/7', 'G#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(189.26, 191.68), (24.24, 30.96)]</t>
+          <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(43.64, 46.58), (97.22, 110.76)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+          <t>[('0:00:00.421247', '0:00:04.929002')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:07.960000', '0:00:14.540000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -565,536 +576,576 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1166666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db', 'Eb', 'Ab']]</t>
-        </is>
+          <t>jaah_21</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_8</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1165876777251185</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Db', 'Gb', 'Ab', 'Db']]</t>
+          <t>[['C:7', 'C:7', 'F:7', 'F:7', 'Bb:7', 'Bb:7', 'Eb:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(21.18297, 24.631133)]</t>
+          <t>[['D:7', 'D:7', 'G:7', 'G:7', 'C:7', 'C:7', 'F:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.344657, 7.314387)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:58.330000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:17.150000', '0:00:24.310000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2276422764227642</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb', 'F', 'F']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(33.309, 39.869)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(22.564557, 29.611814)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2435897435897436</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_8</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2196969696969697</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B', 'B']]</t>
+          <t>[['C#:maj/F', 'C#:aug/F', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(33.698526, 42.916848)]</t>
+          <t>[['E', 'E:aug', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(58.625147, 67.541609)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:32.680000', '0:01:41.760000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:46.416525', '0:00:51.776584')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1276908023483366</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D'], ['D', 'D', 'G/5']]</t>
-        </is>
+          <t>jaah_84</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09200310559006211</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab', 'Db']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(33.016, 39.805), (35.013, 40.766)]</t>
+          <t>[['A:7', 'D:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(34.65, 37.76), (123.03, 126.19)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:16.640000', '0:00:22.170000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:09.860000', '0:00:12.240000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C#:min', 'F#:7/A#', 'B:maj'], ['C#:maj', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(31.34, 36.62), (0.48, 8.48)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(38.2, 41.06), (251.5, 255.38)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1366459627329192</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/b7'], ['C', 'G/3', 'C']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588), (41.655, 46.22)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(60.72, 68.12), (0.34, 17.94)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:10.460000', '0:00:16.360000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1206140350877193</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E'], ['B', 'E', 'C#:min'], ['E', 'B', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G'], ['D', 'G', 'E:min'], ['G', 'D', 'E:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(51.090272, 53.876666), (48.338707, 51.090272), (24.921383, 29.008095)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(22.829118, 26.567531), (56.381952, 61.374243), (10.452882, 21.58685)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:02:02.780000', '0:02:05')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.74, 21.54)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(47.02, 61.58)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(27.28, 57.9)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_9</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.172360248447205</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.75</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(20.08, 22.56)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3035714285714286</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A', 'E'], ['B', 'E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D'], ['A', 'D', 'G', 'D', 'G']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.162102, 17.463236), (8.291354, 15.7914)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.525011, 16.557573), (57.401473, 68.558662)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_67</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1041176470588235</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(22.518117, 27.754217)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(97.77399, 102.557301)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2358870967741936</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab', 'Eb:7'], ['Eb:7', 'Ab', 'Eb:7'], ['Bb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj/G#', 'E:maj/B', 'B:7'], ['B:7', 'E:maj', 'B:7'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.1, 5.91), (7.05, 9.89), (21.5, 24.4), (2.53, 4.77)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(209.04, 217.18), (227.46, 236.36), (2.58, 8.96), (49.28, 56.88)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1416666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7'], ['B', 'B/3', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B'], ['B', 'B', 'E/5']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(4.940612, 6.577619), (153.617981, 161.988775)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(54.178526, 61.620521), (55.629773, 63.091379)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
